--- a/pred_ohlcv/54_21/2020-01-26 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 LUNA ohlcv.xlsx
@@ -11780,7 +11780,7 @@
         <v>3222.742073010001</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>8218.783273010002</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>2540.275573010002</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2160.046726989998</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-2160.046726989998</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-699.3740269899981</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1574.163326989998</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3597.643573010002</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>7623.711873010001</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>5787.447973010001</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>7838.004773010001</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>5775.695273010002</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>5775.695273010002</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-539.7309269899979</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-12391.78872699</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-9748.071926989998</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-9748.071926989998</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-9748.071926989998</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-9748.071926989998</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-8485.601526989998</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-10198.50872699</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-8861.208926989997</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-8861.208926989997</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-12194.90322699</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-12194.90322699</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-12194.90322699</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-13553.22352699</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-13553.22352699</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-17568.80672699</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-15485.70432699</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-23166.88462699</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-23166.88462699</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-66045.69172698999</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-66045.69172698999</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-59792.59792698998</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-60851.63182698999</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-60851.63182698999</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-60851.63182698999</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-62099.49022698998</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-60192.86652698998</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-57381.98692698998</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-67951.62552698997</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-76196.97092698998</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-76196.97092698998</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-67637.35962698999</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-45494.18802698998</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-45583.26692698999</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-45583.26692698999</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-45583.26692698999</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-46663.10382698999</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-44247.87672698998</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-44247.87672698998</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-44247.87672698998</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-44247.87672698998</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-46365.52042698998</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-47838.06792698998</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-10233.75862698997</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-10233.75862698997</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-14915.21742066997</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-21747.40072066998</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-26216.35112066998</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-22010.97542066998</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-24000.42062066997</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-20977.79242066998</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-16690.56242066998</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-16690.56242066998</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-18724.40062066997</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-13325.30032066997</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-8209.377420669975</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-8209.377420669975</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-11148.52762066997</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-11709.23632066997</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-14969.27242066997</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-12150.33872066997</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-12150.33872066997</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-12150.33872066997</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-12150.33872066997</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-9887.559920669974</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-9887.559920669974</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-13329.27402066997</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-10731.15392066997</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-17709.77642066998</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>969.4269793300307</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>3935.114279330031</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 LUNA ohlcv.xlsx
@@ -11780,7 +11780,7 @@
         <v>3222.742073010001</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>8218.783273010002</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>2540.275573010002</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2160.046726989998</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-2160.046726989998</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-699.3740269899981</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1574.163326989998</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3597.643573010002</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>7623.711873010001</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>5787.447973010001</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>7838.004773010001</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>5775.695273010002</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>5775.695273010002</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-539.7309269899979</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-12391.78872699</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-9748.071926989998</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-9748.071926989998</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-9748.071926989998</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-9748.071926989998</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-8485.601526989998</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-10198.50872699</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-8861.208926989997</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-8861.208926989997</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-12194.90322699</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-12194.90322699</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-12194.90322699</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-13553.22352699</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-13553.22352699</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-17568.80672699</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-15485.70432699</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-23166.88462699</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-23166.88462699</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-66045.69172698999</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-60851.63182698999</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-60851.63182698999</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-60851.63182698999</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-56197.18622698999</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-62699.97442698998</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-60192.86652698998</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-67951.62552698997</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-73754.90802698999</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-67637.35962698999</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-45494.18802698998</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-45583.26692698999</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-45583.26692698999</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-45583.26692698999</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-46663.10382698999</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-44247.87672698998</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-44247.87672698998</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-44247.87672698998</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-44247.87672698998</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-46365.52042698998</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-47838.06792698998</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-10233.75862698997</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-22010.97542066998</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-24000.42062066997</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-20977.79242066998</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-16690.56242066998</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-16690.56242066998</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-18724.40062066997</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-13325.30032066997</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-12150.33872066997</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-12150.33872066997</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-12150.33872066997</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-12150.33872066997</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-9887.559920669974</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-9887.559920669974</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-13329.27402066997</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-10731.15392066997</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-17709.77642066998</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1048">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1059">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1061">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1062">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>1785.168779330031</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>969.4269793300307</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>4597.187579330031</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>7404.809079330031</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>5036.084779330031</v>
       </c>
       <c r="H1138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>6473.219779330031</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>8478.556679330031</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
